--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_19-48.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_19-48.xlsx
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>KALOBIN ORAL DROPS 20 ML</t>
   </si>
   <si>
     <t>KERELLA LOTION 30 ML</t>
@@ -2123,13 +2120,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2149,17 +2146,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2167,7 +2164,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2175,17 +2172,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2201,17 +2198,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2227,17 +2224,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2253,17 +2250,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2279,17 +2276,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2305,17 +2302,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2323,7 +2320,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2331,17 +2328,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2357,17 +2354,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2383,17 +2380,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2409,13 +2406,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2435,17 +2432,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2453,7 +2450,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2461,17 +2458,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>48</v>
+        <v>19.5</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2487,17 +2484,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2505,7 +2502,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2513,17 +2510,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2539,13 +2536,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2565,13 +2562,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2583,7 +2580,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2591,17 +2588,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2623,7 +2620,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2643,13 +2640,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2661,7 +2658,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2669,17 +2666,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2695,17 +2692,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2721,13 +2718,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2747,13 +2744,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2773,17 +2770,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2799,17 +2796,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2825,17 +2822,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2843,7 +2840,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2851,17 +2848,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>15</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2869,7 +2866,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2877,13 +2874,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>20.399999999999999</v>
+        <v>26</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2895,7 +2892,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2903,17 +2900,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2929,17 +2926,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2955,17 +2952,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>175</v>
+        <v>149.5</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2981,13 +2978,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>149.5</v>
+        <v>39</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -3013,11 +3010,11 @@
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3033,13 +3030,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>80</v>
+        <v>-17.09</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -3059,17 +3056,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>-17.09</v>
+        <v>23</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3085,13 +3082,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3111,17 +3108,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3137,17 +3134,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3163,13 +3160,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3189,17 +3186,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3221,7 +3218,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>18</v>
+        <v>32.5</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3241,17 +3238,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>32.5</v>
+        <v>26</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3267,13 +3264,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3293,17 +3290,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3311,7 +3308,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3319,17 +3316,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3345,17 +3342,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>56</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3371,17 +3368,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>66.640000000000001</v>
+        <v>34</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3389,7 +3386,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3397,13 +3394,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>34</v>
+        <v>-375</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3423,13 +3420,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>-375</v>
+        <v>50</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3449,13 +3446,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3475,17 +3472,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3507,11 +3504,11 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3527,17 +3524,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>40</v>
+        <v>29.879999999999999</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>9</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3545,7 +3542,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3553,17 +3550,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>29.879999999999999</v>
+        <v>2</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>134</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3579,13 +3576,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>2</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3605,17 +3602,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>188.09999999999999</v>
+        <v>36</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3631,17 +3628,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3663,7 +3660,7 @@
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3683,13 +3680,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3709,13 +3706,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
@@ -3727,7 +3724,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3735,13 +3732,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3761,13 +3758,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3787,13 +3784,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3813,13 +3810,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
@@ -3839,13 +3836,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
@@ -3865,13 +3862,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -3891,13 +3888,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -3917,77 +3914,51 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="115" ht="25.5" customHeight="1">
-      <c r="A115" s="6">
-        <v>112</v>
-      </c>
-      <c t="s" r="B115" s="7">
-        <v>150</v>
-      </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c t="s" r="H115" s="8">
+    <row r="115" ht="26.25" customHeight="1">
+      <c r="K115" s="10">
+        <v>4564.6400000000003</v>
+      </c>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="11">
         <v>151</v>
       </c>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="9">
-        <v>45</v>
-      </c>
-      <c r="M115" s="9"/>
-      <c t="s" r="N115" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="K116" s="10">
-        <v>4564.6400000000003</v>
-      </c>
-      <c r="L116" s="10"/>
-      <c r="M116" s="10"/>
-      <c r="N116" s="10"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="11">
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c t="s" r="F116" s="12">
         <v>152</v>
       </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c t="s" r="F117" s="12">
+      <c r="G116" s="12"/>
+      <c r="H116" s="13"/>
+      <c t="s" r="I116" s="14">
         <v>153</v>
       </c>
-      <c r="G117" s="12"/>
-      <c r="H117" s="13"/>
-      <c t="s" r="I117" s="14">
-        <v>154</v>
-      </c>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
-      <c r="L117" s="14"/>
-      <c r="M117" s="14"/>
-      <c r="N117" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="14"/>
+      <c r="M116" s="14"/>
+      <c r="N116" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="344">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4328,13 +4299,10 @@
     <mergeCell ref="B114:G114"/>
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="K116:N116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="I117:N117"/>
+    <mergeCell ref="K115:N115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="I116:N116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
